--- a/Assets/End/_title_etc.xlsx
+++ b/Assets/End/_title_etc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\islay\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\islay\Documents\god_island\Assets\End\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17304" windowHeight="7416" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17304" windowHeight="7416"/>
   </bookViews>
   <sheets>
     <sheet name="リザルト" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Love波を使って一つの島を変える</t>
+    <t>Love波を使って島を変化させ、人々を襲う黒い巨人を白い天使でやっつけろ！</t>
     <rPh sb="4" eb="5">
       <t>ハ</t>
     </rPh>
@@ -418,13 +418,28 @@
       <t>ツカ</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="12" eb="13">
       <t>シマ</t>
     </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
+    <rPh sb="11" eb="13">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒトビト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キョジン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テンシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1780,14 +1795,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1796,8 +1811,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1882140" y="3421380"/>
-          <a:ext cx="2385060" cy="982980"/>
+          <a:off x="1882140" y="3672840"/>
+          <a:ext cx="2385060" cy="373380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1834,7 +1849,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>背景は産んだ人間</a:t>
+            <a:t>背景は生み出された人間</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
             <a:solidFill>
@@ -3279,7 +3294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3323,7 +3338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Assets/End/_title_etc.xlsx
+++ b/Assets/End/_title_etc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17304" windowHeight="7416"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17304" windowHeight="7416" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="リザルト" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>黒の巨人</t>
-    <rPh sb="0" eb="1">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キョジン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>落ちていったキャラは下に積み上がっていく</t>
     <rPh sb="0" eb="1">
@@ -50,118 +40,6 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黒の巨人の攻撃に当たると、島の人は即死する</t>
-    <rPh sb="0" eb="1">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キョジン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>シマ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>白の天使はかめはめ波を使うことができ、遠距離からの攻撃が可能　当てると3ダメージ</t>
-    <rPh sb="0" eb="1">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テンシ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>エンキョリ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RGBが普通の人が黒の巨人に近距離パンチ/キックを当てると1ダメージ、黒の巨人に近づいている人は3秒に一回撃つ</t>
-    <rPh sb="4" eb="6">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>キョジンイ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>キンキョリ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>キョジン</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>イッカイ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セピアマゼンタイエローのキャラがパンチ/キックを当てると1ダメージ + 攻撃速度が2倍</t>
-    <rPh sb="24" eb="25">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>バイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -440,6 +318,154 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>テンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白の天使は3秒に一回かめはめ波を放って遠距離攻撃をする　当てると3ダメージ</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テンシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通の人は3秒に1回、近距離パンチ/キックを放ち、当てると1ダメージ</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>キンキョリ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シアンマゼンタイエローの人は2秒に1回パンチ/キックができる</t>
+    <rPh sb="12" eb="13">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビームの頻度は5秒に一回程度で、貫通弾　当たると即死</t>
+    <rPh sb="4" eb="6">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンツウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ソクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通の人の移動速度を1とするなら、白は2　シアン系は1.5(もしくは1.25)</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒の巨人との戦闘</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョジン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒の巨人はHP150程度(強くするならもっと多め？)</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョジン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3029,6 +3055,995 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="楕円 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5989320" y="1493520"/>
+          <a:ext cx="525780" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>42700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6179820" y="2298220"/>
+          <a:ext cx="281940" cy="292579"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6530340" y="2260120"/>
+          <a:ext cx="281940" cy="292579"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>137159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6659880" y="2770660"/>
+          <a:ext cx="281940" cy="292579"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>35080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160019</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="1787680"/>
+          <a:ext cx="281940" cy="292579"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>103660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60959</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6598920" y="1353340"/>
+          <a:ext cx="281940" cy="292579"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12220</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="2" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6800850" y="2255520"/>
+          <a:ext cx="60960" cy="515140"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2516073" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5783580" y="3147060"/>
+          <a:ext cx="2516073" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>それぞれが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>秒に一回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ダメージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>弾は多いが近距離攻撃なのですぐ死ぬ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="楕円 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6713220" y="1086640"/>
+          <a:ext cx="281940" cy="292579"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="楕円 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6126480" y="1315240"/>
+          <a:ext cx="281940" cy="292579"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>164620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5966460" y="1749580"/>
+          <a:ext cx="281940" cy="292579"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="楕円 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8740140" y="1600200"/>
+          <a:ext cx="525780" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>149380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106679</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="楕円 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10462260" y="1231420"/>
+          <a:ext cx="281940" cy="292579"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15239</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10210800" y="2816380"/>
+          <a:ext cx="281940" cy="292579"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2733762" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8526780" y="3162300"/>
+          <a:ext cx="2733762" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>それぞれが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>秒に一回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ダメージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>弾は少ないが遠距離攻撃なので死ににくい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>44921</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>162728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>498489</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100787</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="1"/>
+          <a:endCxn id="16" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9188921" y="2250608"/>
+          <a:ext cx="1063168" cy="608619"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3294,36 +4309,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3338,58 +4353,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="T12" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K23" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K24" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K25" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K26" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K28" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K29" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3401,54 +4414,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>21</v>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>23</v>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/End/_title_etc.xlsx
+++ b/Assets/End/_title_etc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17304" windowHeight="7416" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17304" windowHeight="7416"/>
   </bookViews>
   <sheets>
     <sheet name="リザルト" sheetId="1" r:id="rId1"/>
@@ -26,88 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>落ちていったキャラは下に積み上がっていく</t>
-    <rPh sb="0" eb="1">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勝った場合は、出来た人間の総数と生き残り(死んだ数)、白の総数を書く</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニンゲン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ソウスウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ソウスウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>負けた場合は出来た人間の総数と白の総数</t>
-    <rPh sb="0" eb="1">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニンゲン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ソウスウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -259,66 +178,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Love波(愛)は地球を救うどころか、破壊と創造と子沢山をもたらす</t>
-    <rPh sb="4" eb="5">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>チキュウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ハカイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソウゾウ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>コダクサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キャッチコピー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Love波を使って島を変化させ、人々を襲う黒い巨人を白い天使でやっつけろ！</t>
-    <rPh sb="4" eb="5">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>シマ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒトビト</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オソ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キョジン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>テンシ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -466,6 +326,135 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人はリンゴの木に寄ってくるが、それよりも巨人を優先する</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キョジン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ユウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巨人を見つけると突撃してパンチ・キックを行う</t>
+    <rPh sb="0" eb="2">
+      <t>キョジン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トツゲキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝った場合は、出来た人間の総数と生き残り数、クリアタイムを表示</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウスウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面下に落ちた人間はバンザイ風なアニメーションをしておく</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負けた場合の表示は出来た人間の総数だけで、Loseと巨人の煽りアニメーションをデカデカと出す</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウスウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キョジン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Love波(愛)は地球を救う</t>
+    <rPh sb="4" eb="5">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チキュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1263,15 +1252,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>502920</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>91438</xdr:rowOff>
+      <xdr:rowOff>106678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>263754</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>157072</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19914</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4672</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1293,8 +1282,8 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="6855338">
-          <a:off x="746760" y="3688078"/>
+        <a:xfrm>
+          <a:off x="1112520" y="3703318"/>
           <a:ext cx="736194" cy="736194"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1306,14 +1295,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>121918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>225654</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317094</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>19912</xdr:rowOff>
     </xdr:to>
@@ -1337,8 +1326,8 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="4379443">
-          <a:off x="1927860" y="3718558"/>
+        <a:xfrm>
+          <a:off x="3848100" y="3718558"/>
           <a:ext cx="736194" cy="736194"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1359,7 +1348,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1369,7 +1358,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1912620" y="2301240"/>
-          <a:ext cx="2385060" cy="1356360"/>
+          <a:ext cx="2385060" cy="1424940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1404,7 +1393,23 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Humans:x</a:t>
+            <a:t>Humans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>x</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
@@ -1431,8 +1436,30 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>Whites: y</a:t>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Arrives</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>z</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
@@ -1462,25 +1489,28 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>Arrives:z</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:t>ClearTime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>人</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>0:00</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1542,16 +1572,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1560,8 +1590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6888480" y="1615440"/>
-          <a:ext cx="2385060" cy="982980"/>
+          <a:off x="6324600" y="1562100"/>
+          <a:ext cx="3535680" cy="982980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1591,14 +1621,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="6000">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>You Lose...</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -1618,8 +1648,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1629,7 +1659,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6880860" y="2362200"/>
-          <a:ext cx="2385060" cy="982980"/>
+          <a:ext cx="2385060" cy="556260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1664,7 +1694,23 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Humans:x</a:t>
+            <a:t>Humans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>x</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
@@ -1684,34 +1730,6 @@
             <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Whites: y</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>人</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -1720,14 +1738,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1736,7 +1754,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6888480" y="3253740"/>
+          <a:off x="6888480" y="2910840"/>
           <a:ext cx="2385060" cy="982980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1813,32 +1831,109 @@
             <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>とてもでかい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvPr id="13" name="右矢印 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="3954780"/>
+          <a:ext cx="381000" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1882140" y="3672840"/>
-          <a:ext cx="2385060" cy="373380"/>
+          <a:off x="1790700" y="3810000"/>
+          <a:ext cx="1737360" cy="525780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1868,16 +1963,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>背景は生み出された人間</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:t>バンザイしとく</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -1999,37 +2094,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>God Game in</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4400" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Japan</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4400" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(GGJ)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+            <a:t>タイトル</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2037,16 +2108,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2055,8 +2126,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1310640" y="1927860"/>
-          <a:ext cx="2842260" cy="556260"/>
+          <a:off x="2217420" y="3108960"/>
+          <a:ext cx="2842260" cy="655320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2126,15 +2197,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2143,7 +2214,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1295400" y="3078480"/>
+          <a:off x="1280160" y="2567940"/>
           <a:ext cx="2727960" cy="556260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2190,26 +2261,134 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="右矢印 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="1859280"/>
+          <a:ext cx="762000" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6065520" y="525780"/>
+          <a:ext cx="4556760" cy="3055620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1394460" y="2270760"/>
-          <a:ext cx="2385060" cy="982980"/>
+          <a:off x="6911340" y="3032760"/>
+          <a:ext cx="3017520" cy="556260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2241,20 +2420,13 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>背景は島の外観をうつす</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+            <a:t>画面クリックでスタート</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2262,134 +2434,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="右矢印 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="1859280"/>
-          <a:ext cx="762000" cy="396240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6065520" y="525780"/>
-          <a:ext cx="4556760" cy="3055620"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6911340" y="3032760"/>
-          <a:ext cx="3017520" cy="556260"/>
+          <a:off x="7216140" y="563880"/>
+          <a:ext cx="2385060" cy="525780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2421,71 +2485,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>画面クリックでスタート</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7216140" y="563880"/>
-          <a:ext cx="2385060" cy="525780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
@@ -2507,181 +2506,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="楕円 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6842760" y="1417320"/>
-          <a:ext cx="891540" cy="1303020"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線コネクタ 13"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="2"/>
-          <a:endCxn id="12" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6842760" y="2068830"/>
-          <a:ext cx="891540" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>582930</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>582930</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線コネクタ 16"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7288530" y="1417320"/>
-          <a:ext cx="0" cy="632460"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2690,8 +2524,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7985760" y="1173480"/>
-          <a:ext cx="2385060" cy="1630680"/>
+          <a:off x="6019800" y="1257300"/>
+          <a:ext cx="2385060" cy="1729740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2744,7 +2578,40 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Mouse Only</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
               <a:solidFill>
@@ -2753,34 +2620,8 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>※Mouse Only</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Left</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
+            <a:t>Left:</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
               <a:solidFill>
@@ -2820,7 +2661,17 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
               <a:solidFill>
@@ -2850,7 +2701,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
               <a:solidFill>
@@ -2859,7 +2710,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>・</a:t>
+            <a:t>　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
@@ -2869,27 +2720,8 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>Right</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
+            <a:t>Right:</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
               <a:ln>
@@ -2922,22 +2754,90 @@
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Wheel:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ステージ見回し</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2946,8 +2846,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7246620" y="2377440"/>
-          <a:ext cx="2385060" cy="982980"/>
+          <a:off x="4305300" y="2766060"/>
+          <a:ext cx="2385060" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2979,7 +2879,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
@@ -2988,7 +2888,7 @@
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
@@ -3052,11 +2952,610 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8244840" y="1036320"/>
+          <a:ext cx="2385060" cy="2179320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="48000">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="97000"/>
+                <a:lumOff val="3000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>つの「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Love</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>波」で人々を導く愛のゴッドゲーム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>黒い巨人を倒せ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ハンショク、破壊と創造</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8435340" y="297180"/>
+          <a:ext cx="2689860" cy="2217420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:tint val="66000"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent1">
+                <a:tint val="44500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:tint val="23500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="297180"/>
+          <a:ext cx="2225040" cy="2217420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:tint val="66000"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent1">
+                <a:tint val="44500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:tint val="23500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8389620" y="3131820"/>
+          <a:ext cx="3680460" cy="1394460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:tint val="66000"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent1">
+                <a:tint val="44500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:tint val="23500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5875020" y="3139440"/>
+          <a:ext cx="2225040" cy="1394460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:tint val="66000"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent1">
+                <a:tint val="44500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:tint val="23500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6637020" y="3756660"/>
+          <a:ext cx="205740" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -3740,7 +4239,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8740140" y="1600200"/>
+          <a:off x="8740140" y="929640"/>
           <a:ext cx="525780" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4041,6 +4540,788 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="楕円 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7604760" y="3997480"/>
+          <a:ext cx="281940" cy="292579"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="雲 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362700" y="3253740"/>
+          <a:ext cx="739140" cy="693420"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloud">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6446520" y="3558540"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="楕円 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781800" y="3268980"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6926580" y="4145280"/>
+          <a:ext cx="556260" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8869680" y="3756660"/>
+          <a:ext cx="205740" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="楕円 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9837420" y="3997480"/>
+          <a:ext cx="281940" cy="292579"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="雲 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8595360" y="3253740"/>
+          <a:ext cx="739140" cy="693420"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloud">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="楕円 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8679180" y="3558540"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="楕円 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9014460" y="3268980"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10271760" y="4076700"/>
+          <a:ext cx="769620" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="楕円 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11269980" y="3596640"/>
+          <a:ext cx="525780" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2049728" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5951220" y="4594860"/>
+          <a:ext cx="2049728" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>リンゴだけならリンゴに向かうが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2940228" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8709660" y="4572000"/>
+          <a:ext cx="2940228" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>リンゴと巨人両方が索敵範囲内なら巨人を狙う</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4307,38 +5588,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" t="s">
-        <v>2</v>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4359,50 +5640,50 @@
   <sheetData>
     <row r="1" spans="1:20" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="T12" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4414,60 +5695,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/End/_title_etc.xlsx
+++ b/Assets/End/_title_etc.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17304" windowHeight="7416"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17304" windowHeight="7416" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="リザルト" sheetId="1" r:id="rId1"/>
     <sheet name="タイトル" sheetId="3" r:id="rId2"/>
-    <sheet name="巨人" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="巨人" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -455,6 +456,279 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お目覚めになられましたか、我らが神(お客様、プレイヤー)よ</t>
+    <rPh sb="1" eb="3">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワレ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キャクサマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神ゲー～ゴッドゲーム</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このゲームは神視点で展開されるリアルタイム・シミュレーションゲームです</t>
+    <rPh sb="6" eb="7">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Love-Beam　それは人々に愛を教えます</t>
+    <rPh sb="13" eb="15">
+      <t>ヒトビト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Love-Break それは愛ゆえの破壊です</t>
+    <rPh sb="14" eb="15">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Love-Create それは愛がもたらす創造です</t>
+    <rPh sb="15" eb="16">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Love-Apple それは愛の果実です</t>
+    <rPh sb="14" eb="15">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアルのテキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームのゴールは、あなたを慕う人間たちを脅かす「黒い巨人」を倒すこと</t>
+    <rPh sb="13" eb="14">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オビヤ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キョジン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神であるあなたは「Love波」を使って人間たちや彼らの住む島に干渉して、立ち向かう力を与えることができます</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カレ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シマ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンショウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛を得た人間は、白く輝き「白い天使」へとなります</t>
+    <rPh sb="0" eb="1">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カガヤ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彼らは黒い巨人の弱点である、Love-Beamを撃つことができます</t>
+    <rPh sb="0" eb="1">
+      <t>カレ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョジン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジャクテン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あなたがいくら強くとも、人間たちと一緒でなければことは成せません</t>
+    <rPh sb="7" eb="8">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さあ、楽しくも残酷なゴッドライフの始まりです</t>
+    <rPh sb="3" eb="4">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザンコク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作方法</t>
+    <rPh sb="0" eb="4">
+      <t>ソウサホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作はマウスのみで行います</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左クリックで項目選択と決定、Love波を撃つことが出来ます</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右クリックとホイールで世界を見渡すことができます</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ミワタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5590,7 +5864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -5695,6 +5969,111 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
